--- a/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
+++ b/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="112">
   <si>
     <t>거래명세요약정보</t>
   </si>
@@ -375,6 +375,22 @@
   </si>
   <si>
     <t>리필용 칼심, 클립 구입(오피스디포)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*영수증 거의 지워짐</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1080,7 +1096,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1093,6 +1109,66 @@
     <xf numFmtId="176" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1108,64 +1184,7 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1506,32 +1525,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2256,562 +2275,588 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="15.25" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="9"/>
-    <col min="6" max="6" width="9" style="13"/>
-    <col min="7" max="7" width="26.25" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9" style="28"/>
-    <col min="9" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="15.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="4"/>
+    <col min="6" max="6" width="9" style="8"/>
+    <col min="7" max="7" width="26.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9" style="23"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="13">
         <v>38000</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="13">
         <v>15900</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="13">
         <v>8000</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="27"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="13">
         <v>44000</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="13">
         <v>138000</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="27" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="13">
         <v>10000</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="27"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="22" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="13">
         <v>10500</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="27"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="13">
         <v>23600</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="27"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="22" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="13">
         <v>32000</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="27"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="22" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="17">
         <v>61000</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="27"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="17">
         <v>3710</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="13">
         <v>40000</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="27"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="22" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="13">
         <v>2000</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="27"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="22" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="13">
         <v>5250</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="27"/>
+      <c r="G15" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="13">
         <v>46000</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="22" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="13">
         <v>5750</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="27"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="13">
         <v>30700</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="27"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="13">
         <v>30000</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="27"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="22" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="13">
         <v>14200</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="27"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="22" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="13">
         <v>1133000</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="27"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="22" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="13">
         <v>21000</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="27"/>
+      <c r="H22" s="22" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="13">
         <v>3000</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="27"/>
+      <c r="H23" s="22" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D24" s="12"/>
+      <c r="D24" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:F23"/>

--- a/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
+++ b/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="113">
   <si>
     <t>거래명세요약정보</t>
   </si>
@@ -391,6 +391,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1169,6 +1173,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1183,9 +1190,6 @@
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1525,32 +1529,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2274,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2391,7 +2395,9 @@
       <c r="G4" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="22" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
@@ -2559,7 +2565,7 @@
       <c r="G11" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="29"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
@@ -2583,7 +2589,7 @@
       <c r="G12" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="29"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">

--- a/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
+++ b/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
@@ -16,14 +16,14 @@
     <sheet name="지출항목" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">지출항목!$E$1:$F$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">지출항목!$E$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="136">
   <si>
     <t>거래명세요약정보</t>
   </si>
@@ -280,19 +280,192 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>사업추진비</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차비</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차비</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>인쇄비</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의비</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료비</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료비</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무용품</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>지출비용</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진촬영</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차비</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>경복궁 팹랩사용</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>한양대학교 레이저커팅기 사용</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 제본 후 회의</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.26 20:12</t>
+  </si>
+  <si>
+    <t>이래초밥＆참치</t>
+  </si>
+  <si>
+    <t>사업추진비</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의비</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃으로 판매자내역 정리에 대한 건, 뒷표지 오타에 관한 건, 기름종이 인쇄 건</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>영수증</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>리필용 칼심, 클립 구입(오피스디포)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*영수증 거의 지워짐</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>영수증없음</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>영수증없음</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>반납</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>사업장비재료비</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>2018.11.28 16:36</t>
+  </si>
+  <si>
+    <t>（주）페이퍼리치</t>
+  </si>
+  <si>
+    <t>사용처</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.29 15:40</t>
+  </si>
+  <si>
+    <t>2018.11.29 15:03</t>
+  </si>
+  <si>
+    <t>이레화방</t>
+  </si>
+  <si>
+    <t>2018.11.28 17:45</t>
+  </si>
+  <si>
+    <t>（주）삼원특수지</t>
+  </si>
+  <si>
+    <t>2018.11.29 16:20</t>
+  </si>
+  <si>
+    <t>셀통</t>
+  </si>
+  <si>
     <t>사업추진비</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>주차비</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>주차비</t>
+    <t>사무용품</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업활동비</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업활동비</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>제본비</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>제본소에서 재료 요청</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -300,101 +473,11 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>회의비</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료비</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료비</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>사무용품</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>지출비용</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진촬영</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>주차비</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>경복궁 팹랩사용</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>한양대학교 레이저커팅기 사용</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>영수증없음</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫 제본 후 회의</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.11.26 20:12</t>
-  </si>
-  <si>
-    <t>이래초밥＆참치</t>
-  </si>
-  <si>
-    <t>사업추진비</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>회의비</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>깃으로 판매자내역 정리에 대한 건, 뒷표지 오타에 관한 건, 기름종이 인쇄 건</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>영수증</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캔</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>리필용 칼심, 클립 구입(오피스디포)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캔</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캔</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*영수증 거의 지워짐</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캔</t>
+    <t>페이퍼리치세계-컨셉트레이싱지 170g 전지 30장</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%반납해야함</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1100,7 +1183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1113,69 +1196,18 @@
     <xf numFmtId="176" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,6 +1222,45 @@
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1529,32 +1600,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2276,596 +2347,730 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="15.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="9" style="8"/>
-    <col min="7" max="7" width="26.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9" style="23"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="9" style="18"/>
+    <col min="3" max="3" width="15.25" style="18" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="18"/>
+    <col min="6" max="6" width="9" style="25"/>
+    <col min="7" max="7" width="26.25" style="18" customWidth="1"/>
+    <col min="8" max="8" width="9" style="16"/>
+    <col min="9" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="19">
+        <v>21500</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="19">
+        <v>10900</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="19">
+        <v>53000</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="19">
+        <v>7600</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="19">
+        <v>37500</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="19">
+        <v>38000</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="19">
+        <v>15900</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="19">
+        <v>8000</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="13">
-        <v>38000</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="H9" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="19">
+        <v>44000</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="22" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="19">
+        <v>138000</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="19">
+        <v>10500</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="19">
+        <v>23600</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="13">
-        <v>15900</v>
-      </c>
-      <c r="E3" s="15" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="19">
+        <v>32000</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="20" t="s">
+      <c r="F15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="13">
-        <v>8000</v>
-      </c>
-      <c r="E4" s="15" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="22">
+        <v>61000</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F16" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="22">
+        <v>3710</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G17" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="19">
+        <v>40000</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="19">
+        <v>5250</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="13">
-        <v>44000</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="G20" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="19">
+        <v>46000</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="13">
-        <v>138000</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="13">
-        <v>10000</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="G21" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="19">
+        <v>5750</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="19">
+        <v>30700</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="13">
-        <v>10500</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="G23" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="19">
+        <v>30000</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="13">
-        <v>23600</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="F24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="19">
+        <v>14200</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="13">
-        <v>32000</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="F25" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="17">
-        <v>61000</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="17">
-        <v>3710</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="G25" s="21"/>
+      <c r="H25" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="19">
+        <v>1133000</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="19">
+        <v>21000</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="13">
-        <v>40000</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="G27" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="19">
+        <v>3000</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="13">
-        <v>2000</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="13">
-        <v>5250</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="13">
-        <v>46000</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="20" t="s">
+      <c r="G28" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="13">
-        <v>5750</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="13">
-        <v>30700</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="13">
-        <v>30000</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="13">
-        <v>14200</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="13">
-        <v>1133000</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="13">
-        <v>21000</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="13">
-        <v>3000</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D24" s="7"/>
+      <c r="H28" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D29" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:F23"/>
+  <autoFilter ref="E1:F28"/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
+++ b/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="지출항목" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="120">
   <si>
     <t>은평뉴타운지점</t>
   </si>
@@ -429,6 +429,14 @@
   </si>
   <si>
     <t>필요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루 회의비 초과로 반납해야할듯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제본재료 삼</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -818,7 +826,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -989,6 +997,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1118,7 +1174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,6 +1237,30 @@
     </xf>
     <xf numFmtId="176" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1505,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1555,19 +1635,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="22">
         <v>21500</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="23" t="s">
         <v>105</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -1581,25 +1661,25 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="28">
         <v>10900</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="5" t="s">
         <v>113</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -1607,25 +1687,25 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="28">
         <v>53000</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="5" t="s">
         <v>109</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -1633,25 +1713,25 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="28">
         <v>7600</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="5" t="s">
         <v>109</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -1659,25 +1739,25 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="28">
         <v>37500</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="5" t="s">
         <v>111</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -1685,25 +1765,25 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="25">
         <v>38000</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="26" t="s">
         <v>79</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -1852,7 +1932,7 @@
         <v>54</v>
       </c>
       <c r="G12" s="13"/>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="7" t="s">
         <v>86</v>
       </c>
       <c r="I12" s="10" t="s">
@@ -1881,8 +1961,10 @@
       <c r="F13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="6"/>
+      <c r="G13" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -2179,26 +2261,28 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="14">
         <v>14200</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="6" t="s">
+      <c r="G25" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>84</v>
       </c>
       <c r="I25" s="10" t="s">
@@ -2311,7 +2395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
+++ b/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
@@ -16,14 +16,14 @@
     <sheet name="이자" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">지출항목!$E$1:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">지출항목!$E$1:$F$42</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="173">
   <si>
     <t>은평뉴타운지점</t>
   </si>
@@ -325,10 +325,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>영수증없음</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>반납</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -437,6 +433,191 @@
   </si>
   <si>
     <t>제본재료 삼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.15 16:46</t>
+  </si>
+  <si>
+    <t>2018.12.05 15:01</t>
+  </si>
+  <si>
+    <t>현카구매</t>
+  </si>
+  <si>
+    <t>현카캐쉬백</t>
+  </si>
+  <si>
+    <t>098150</t>
+  </si>
+  <si>
+    <t>주식회사　아성다이소</t>
+  </si>
+  <si>
+    <t>2018.12.03 18:48</t>
+  </si>
+  <si>
+    <t>서울특별시중구청</t>
+  </si>
+  <si>
+    <t>2018.12.03 18:42</t>
+  </si>
+  <si>
+    <t>2018.12.03 16:36</t>
+  </si>
+  <si>
+    <t>킨코스코리아（주</t>
+  </si>
+  <si>
+    <t>2018.12.12 13:08</t>
+  </si>
+  <si>
+    <t>맥도날드안국역점</t>
+  </si>
+  <si>
+    <t>2018.12.10 16:12</t>
+  </si>
+  <si>
+    <t>인터넷</t>
+  </si>
+  <si>
+    <t>금고삼일인쇄트레이싱</t>
+  </si>
+  <si>
+    <t>2018.12.10 15:37</t>
+  </si>
+  <si>
+    <t>곱창의　청춘</t>
+  </si>
+  <si>
+    <t>2018.12.14 17:00</t>
+  </si>
+  <si>
+    <t>포토인</t>
+  </si>
+  <si>
+    <t>2018.12.18 10:51</t>
+  </si>
+  <si>
+    <t>한국철도공사</t>
+  </si>
+  <si>
+    <t>2018.12.18 13:20</t>
+  </si>
+  <si>
+    <t>주식회사　마스터</t>
+  </si>
+  <si>
+    <t>2018.12.19 21:40</t>
+  </si>
+  <si>
+    <t>2018.12.19 10:28</t>
+  </si>
+  <si>
+    <t>카페　케이티인재</t>
+  </si>
+  <si>
+    <t>2018.12.18 23:58</t>
+  </si>
+  <si>
+    <t>（주）굿모닝레지</t>
+  </si>
+  <si>
+    <t>2018.12.18 17:14</t>
+  </si>
+  <si>
+    <t>신한서림문화사제본</t>
+  </si>
+  <si>
+    <t>필요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼장금</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업추진비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장용품</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저커팅 후 식사</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전포장봉투 1개</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공방플러스위드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업활동비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저커팅비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>실물영수증</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리완료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업활동비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인쇄비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이싱지 목차 인쇄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">트레이싱지 전 회의…. </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출전표</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출전표</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출전표</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +820,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -825,8 +1006,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1045,6 +1232,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1174,7 +1374,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,9 +1441,6 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1260,6 +1457,51 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1583,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1598,11 +1840,11 @@
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="9" style="17"/>
     <col min="7" max="7" width="26.25" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9" style="8"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="8" max="9" width="9" style="8"/>
+    <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1610,7 +1852,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>68</v>
@@ -1627,764 +1869,1122 @@
       <c r="H1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="36">
+        <v>23700</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="36">
+        <v>2500</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="36">
+        <v>68000</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="39">
+        <v>150000</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="36">
+        <v>35000</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="36">
+        <v>23700</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="36">
+        <v>28600</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="36">
+        <v>14400</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="37">
+        <v>148500</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="36">
+        <v>36000</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="36">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="36">
+        <v>4000</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="36">
+        <v>30000</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="36">
+        <v>22000</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="D16" s="34">
+        <v>21500</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="27">
+        <v>10900</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="22">
-        <v>21500</v>
-      </c>
-      <c r="E2" s="23" t="s">
+      <c r="F17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="27">
+        <v>53000</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="I18" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="27">
+        <v>7600</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="27">
+        <v>37500</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="28">
-        <v>10900</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="28">
-        <v>53000</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="G20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="28">
-        <v>7600</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="28">
-        <v>37500</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="B21" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D21" s="24">
         <v>38000</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G21" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11">
-        <v>15900</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="11">
-        <v>8000</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="11">
-        <v>44000</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="11">
-        <v>138000</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="11">
-        <v>10000</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="11">
-        <v>10500</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="11">
-        <v>23600</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="11">
-        <v>32000</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="14">
-        <v>61000</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="14">
-        <v>3710</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="11">
-        <v>40000</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="11">
-        <v>5250</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="11">
-        <v>46000</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="I21" s="6"/>
       <c r="J21" s="10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D22" s="11">
-        <v>5750</v>
+        <v>15900</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D23" s="11">
-        <v>30700</v>
+        <v>8000</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="10" t="s">
-        <v>117</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="6"/>
       <c r="J23" s="10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D24" s="11">
-        <v>30000</v>
+        <v>44000</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="H24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="11">
+        <v>138000</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="11">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="11">
+        <v>10500</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="11">
+        <v>23600</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="11">
+        <v>32000</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="I29" s="6"/>
+      <c r="J29" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="14">
+        <v>61000</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="14">
+        <v>3710</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="11">
+        <v>40000</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="11">
+        <v>5250</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="11">
+        <v>46000</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="11">
+        <v>5750</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="11">
+        <v>30700</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="11">
+        <v>30000</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B39" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D39" s="30">
         <v>14200</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E39" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F39" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H25" s="7" t="s">
+      <c r="G39" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="I25" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J25" s="10" t="s">
+      <c r="I39" s="32"/>
+      <c r="J39" s="10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="K39" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D40" s="11">
         <v>1133000</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="6" t="s">
+      <c r="G40" s="13"/>
+      <c r="H40" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D41" s="11">
         <v>21000</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G41" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H41" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J27" s="10" t="s">
+      <c r="I41" s="6"/>
+      <c r="J41" s="10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="K41" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D42" s="11">
         <v>3000</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G42" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H42" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I28" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J28" s="10" t="s">
+      <c r="I42" s="6"/>
+      <c r="J42" s="10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D29" s="16"/>
+      <c r="K42" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D43" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:F28"/>
+  <autoFilter ref="E1:F42"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2393,10 +2993,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2429,7 +3029,7 @@
     </row>
     <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>14</v>
@@ -2441,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="20">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="F2" s="20">
-        <v>1146753</v>
+        <v>1869994</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>0</v>
@@ -2452,30 +3052,30 @@
     </row>
     <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="D3" s="20">
         <v>0</v>
       </c>
       <c r="E3" s="20">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="F3" s="20">
-        <v>1372763</v>
+        <v>2097358</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>14</v>
@@ -2487,10 +3087,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="20">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="F4" s="20">
-        <v>1511348</v>
+        <v>1146753</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -2498,7 +3098,7 @@
     </row>
     <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>14</v>
@@ -2510,12 +3110,58 @@
         <v>0</v>
       </c>
       <c r="E5" s="20">
+        <v>125</v>
+      </c>
+      <c r="F5" s="20">
+        <v>1372763</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
+        <v>143</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1511348</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
         <v>104</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F7" s="20">
         <v>2776104</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>0</v>
       </c>
     </row>

--- a/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
+++ b/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="187">
   <si>
     <t>은평뉴타운지점</t>
   </si>
@@ -469,155 +469,212 @@
     <t>킨코스코리아（주</t>
   </si>
   <si>
+    <t>맥도날드안국역점</t>
+  </si>
+  <si>
+    <t>2018.12.10 16:12</t>
+  </si>
+  <si>
+    <t>인터넷</t>
+  </si>
+  <si>
+    <t>금고삼일인쇄트레이싱</t>
+  </si>
+  <si>
+    <t>2018.12.10 15:37</t>
+  </si>
+  <si>
+    <t>곱창의　청춘</t>
+  </si>
+  <si>
+    <t>2018.12.14 17:00</t>
+  </si>
+  <si>
+    <t>포토인</t>
+  </si>
+  <si>
+    <t>2018.12.18 10:51</t>
+  </si>
+  <si>
+    <t>한국철도공사</t>
+  </si>
+  <si>
+    <t>2018.12.18 13:20</t>
+  </si>
+  <si>
+    <t>주식회사　마스터</t>
+  </si>
+  <si>
+    <t>2018.12.19 21:40</t>
+  </si>
+  <si>
+    <t>2018.12.19 10:28</t>
+  </si>
+  <si>
+    <t>카페　케이티인재</t>
+  </si>
+  <si>
+    <t>2018.12.18 23:58</t>
+  </si>
+  <si>
+    <t>（주）굿모닝레지</t>
+  </si>
+  <si>
+    <t>2018.12.18 17:14</t>
+  </si>
+  <si>
+    <t>신한서림문화사제본</t>
+  </si>
+  <si>
+    <t>필요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼장금</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업추진비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장용품</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저커팅 후 식사</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전포장봉투 1개</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공방플러스위드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업활동비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저커팅비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>실물영수증</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리완료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업활동비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인쇄비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이싱지 목차 인쇄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">트레이싱지 전 회의…. </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출전표</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출전표</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출전표</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업추진비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업활동비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인쇄비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학창의재단 스티커 인쇄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제본소에 재료조달, 킨코스방문</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>출장비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업추진비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ktx</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ktx</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙박비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>2018.12.12 13:08</t>
-  </si>
-  <si>
-    <t>맥도날드안국역점</t>
-  </si>
-  <si>
-    <t>2018.12.10 16:12</t>
-  </si>
-  <si>
-    <t>인터넷</t>
-  </si>
-  <si>
-    <t>금고삼일인쇄트레이싱</t>
-  </si>
-  <si>
-    <t>2018.12.10 15:37</t>
-  </si>
-  <si>
-    <t>곱창의　청춘</t>
-  </si>
-  <si>
-    <t>2018.12.14 17:00</t>
-  </si>
-  <si>
-    <t>포토인</t>
-  </si>
-  <si>
-    <t>2018.12.18 10:51</t>
-  </si>
-  <si>
-    <t>한국철도공사</t>
-  </si>
-  <si>
-    <t>2018.12.18 13:20</t>
-  </si>
-  <si>
-    <t>주식회사　마스터</t>
-  </si>
-  <si>
-    <t>2018.12.19 21:40</t>
-  </si>
-  <si>
-    <t>2018.12.19 10:28</t>
-  </si>
-  <si>
-    <t>카페　케이티인재</t>
-  </si>
-  <si>
-    <t>2018.12.18 23:58</t>
-  </si>
-  <si>
-    <t>（주）굿모닝레지</t>
-  </si>
-  <si>
-    <t>2018.12.18 17:14</t>
-  </si>
-  <si>
-    <t>신한서림문화사제본</t>
-  </si>
-  <si>
-    <t>필요</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼장금</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업추진비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>포장용품</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>회의비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이저커팅 후 식사</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>안전포장봉투 1개</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캔</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캔</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>공방플러스위드</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업활동비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이저커팅비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>실물영수증</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>정리완료</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업활동비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인쇄비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>트레이싱지 목차 인쇄</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>회의비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">트레이싱지 전 회의…. </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>매출전표</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>매출전표</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>매출전표</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1827,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1870,7 +1927,7 @@
         <v>80</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>113</v>
@@ -1881,78 +1938,99 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" s="36">
         <v>23700</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="9"/>
+      <c r="E2" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>182</v>
+      </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="D3" s="36">
         <v>2500</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="G3" s="9"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D4" s="36">
         <v>68000</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>184</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>148</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>149</v>
       </c>
       <c r="D5" s="39">
         <v>150000</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="40" t="s">
+        <v>176</v>
+      </c>
       <c r="F5" s="41"/>
       <c r="G5" s="42"/>
       <c r="H5" s="41"/>
@@ -1960,13 +2038,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D6" s="36">
         <v>35000</v>
@@ -1979,135 +2057,147 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D7" s="36">
         <v>23700</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9"/>
+      <c r="E7" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>183</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D8" s="36">
         <v>28600</v>
       </c>
       <c r="E8" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="G8" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D9" s="36">
         <v>14400</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>156</v>
-      </c>
       <c r="H9" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="C10" s="29" t="s">
         <v>133</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>134</v>
       </c>
       <c r="D10" s="37">
         <v>148500</v>
       </c>
       <c r="E10" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>167</v>
-      </c>
       <c r="H10" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D11" s="36">
         <v>36000</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>169</v>
-      </c>
       <c r="H11" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.3">
@@ -2124,16 +2214,16 @@
         <v>1000</v>
       </c>
       <c r="E12" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="G12" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2150,8 +2240,12 @@
       <c r="D13" s="36">
         <v>4000</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -2164,18 +2258,27 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="36">
         <v>30000</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2191,9 +2294,15 @@
       <c r="D15" s="36">
         <v>22000</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
@@ -2223,7 +2332,7 @@
         <v>107</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2279,7 +2388,7 @@
         <v>106</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2513,7 +2622,7 @@
         <v>86</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>116</v>
@@ -2629,7 +2738,7 @@
         <v>88</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2658,7 +2767,7 @@
         <v>88</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2987,7 +3096,7 @@
   <autoFilter ref="E1:F42"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
+++ b/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="189">
   <si>
     <t>은평뉴타운지점</t>
   </si>
@@ -675,6 +675,14 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인쇄골목 주차비</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1885,7 +1893,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2246,8 +2254,12 @@
       <c r="F13" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">

--- a/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
+++ b/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="194">
   <si>
     <t>은평뉴타운지점</t>
   </si>
@@ -683,6 +683,26 @@
   </si>
   <si>
     <t>인쇄골목 주차비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업추진비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제본소 실수하심 돈만 곧 입금</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1892,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1966,7 +1986,9 @@
       <c r="G2" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2057,11 +2079,20 @@
       <c r="D6" s="36">
         <v>35000</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="9"/>
+      <c r="E6" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>192</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
+      <c r="J6" s="10" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -2284,7 +2315,9 @@
       <c r="G14" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="10" t="s">
         <v>150</v>
@@ -2315,7 +2348,9 @@
       <c r="G15" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">

--- a/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
+++ b/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
@@ -698,11 +698,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>제본소 실수하심 돈만 곧 입금</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>필요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제본소찾아감, 실수, 나비당 점심</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1913,7 +1913,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2086,12 +2086,12 @@
         <v>191</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">

--- a/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
+++ b/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="203">
   <si>
     <t>은평뉴타운지점</t>
   </si>
@@ -313,10 +313,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>스캔</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -325,10 +321,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>반납</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>사업장비재료비</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -614,95 +606,139 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>완료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업추진비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업활동비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인쇄비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학창의재단 스티커 인쇄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제본소에 재료조달, 킨코스방문</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>출장비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업추진비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ktx</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ktx</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙박비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.12 13:08</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인쇄골목 주차비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업추진비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제본소찾아감, 실수, 나비당 점심</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리완료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리완료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리완료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리완료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인쇄필요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>영수증없음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리완료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수님에게 책 홍보</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>매출전표</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>완료</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업추진비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>회의비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주차비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업활동비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인쇄비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>과학창의재단 스티커 인쇄</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>제본소에 재료조달, 킨코스방문</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>출장비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업추진비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ktx</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ktx</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙박비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.12.12 13:08</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캔</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인쇄골목 주차비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캔</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업추진비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>회의비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>제본소찾아감, 실수, 나비당 점심</t>
+    <t>인쇄필요</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -905,7 +941,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1093,7 +1129,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,7 +1501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1472,18 +1514,12 @@
     <xf numFmtId="49" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1502,12 +1538,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1544,9 +1574,6 @@
     <xf numFmtId="176" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1571,23 +1598,50 @@
     <xf numFmtId="176" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1912,21 +1966,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9" style="10"/>
-    <col min="3" max="3" width="15.25" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="26.25" style="10" customWidth="1"/>
-    <col min="8" max="9" width="9" style="8"/>
-    <col min="10" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="18.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9" style="8"/>
+    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="8"/>
+    <col min="6" max="6" width="9" style="13"/>
+    <col min="7" max="7" width="26.25" style="8" customWidth="1"/>
+    <col min="8" max="9" width="9" style="6"/>
+    <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1937,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>68</v>
@@ -1945,584 +1999,624 @@
       <c r="E1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>114</v>
+      <c r="I1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="31">
+        <v>23700</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="36">
-        <v>23700</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="36">
+      <c r="D3" s="32">
         <v>2500</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>172</v>
+      <c r="E3" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="31">
+        <v>68000</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="36">
-        <v>68000</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="D5" s="38">
+        <v>150000</v>
+      </c>
+      <c r="E5" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="39">
-        <v>150000</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="36">
+        <v>139</v>
+      </c>
+      <c r="D6" s="31">
         <v>35000</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="10" t="s">
-        <v>192</v>
+      <c r="I6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="36">
+      <c r="A7" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="38">
         <v>23700</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="H7" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="36">
+        <v>135</v>
+      </c>
+      <c r="D8" s="31">
         <v>28600</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="31">
+        <v>14400</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="36">
-        <v>14400</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="C10" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="38">
+        <v>148500</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="37">
-        <v>148500</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="40" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="36">
+        <v>133</v>
+      </c>
+      <c r="D11" s="31">
         <v>36000</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>172</v>
+      <c r="F11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="36">
+        <v>122</v>
+      </c>
+      <c r="D12" s="31">
         <v>1000</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" s="5"/>
+      <c r="E12" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="36">
+        <v>124</v>
+      </c>
+      <c r="D13" s="31">
         <v>4000</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="I13" s="5"/>
+      <c r="E13" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="36">
+        <v>149</v>
+      </c>
+      <c r="D14" s="31">
         <v>30000</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>172</v>
+      <c r="E14" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="36">
+        <v>127</v>
+      </c>
+      <c r="D15" s="31">
         <v>22000</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="I15" s="5"/>
+      <c r="E15" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="29">
+        <v>21500</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="42">
+        <v>10900</v>
+      </c>
+      <c r="E17" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="F17" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="34">
-        <v>21500</v>
-      </c>
-      <c r="E16" s="26" t="s">
+      <c r="G17" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="12" t="s">
+      <c r="I17" s="40"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="23">
+        <v>53000</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="23">
+        <v>7600</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="23">
+        <v>37500</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="27">
-        <v>10900</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="27">
-        <v>53000</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="27">
-        <v>7600</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="27">
-        <v>37500</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="5"/>
+      <c r="H20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="20">
         <v>38000</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>115</v>
+      <c r="I21" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2535,22 +2629,24 @@
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="9">
         <v>15900</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I22" s="6"/>
+      <c r="I22" s="5" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -2562,27 +2658,29 @@
       <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="9">
         <v>8000</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>115</v>
+      <c r="H23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2595,27 +2693,29 @@
       <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <v>44000</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>115</v>
+      <c r="I24" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="27" x14ac:dyDescent="0.3">
@@ -2628,22 +2728,24 @@
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="9">
         <v>138000</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="6" t="s">
+      <c r="G25" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="5" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -2655,27 +2757,29 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="9">
         <v>10000</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>115</v>
+      <c r="G26" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="27" x14ac:dyDescent="0.3">
@@ -2688,20 +2792,24 @@
       <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="9">
         <v>10500</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="G27" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -2713,20 +2821,22 @@
       <c r="C28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="9">
         <v>23600</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="6" t="s">
+      <c r="G28" s="11"/>
+      <c r="H28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="6"/>
+      <c r="I28" s="5" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -2738,83 +2848,81 @@
       <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="9">
         <v>32000</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="6" t="s">
+      <c r="G29" s="11"/>
+      <c r="H29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>115</v>
+      <c r="I29" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="43">
         <v>61000</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>170</v>
+      <c r="G30" s="46"/>
+      <c r="H30" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" s="45" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="43">
         <v>3710</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>169</v>
+      <c r="G31" s="46"/>
+      <c r="H31" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" s="45" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2827,25 +2935,27 @@
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="9">
         <v>40000</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="6" t="s">
+      <c r="G32" s="11"/>
+      <c r="H32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>115</v>
+      <c r="I32" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2858,20 +2968,22 @@
       <c r="C33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="9">
         <v>2000</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="6" t="s">
+      <c r="G33" s="11"/>
+      <c r="H33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="6"/>
+      <c r="I33" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -2883,22 +2995,24 @@
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="9">
         <v>5250</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I34" s="6"/>
+      <c r="I34" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -2910,27 +3024,29 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="9">
         <v>46000</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>115</v>
+      <c r="I35" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2943,18 +3059,22 @@
       <c r="C36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="9">
         <v>5750</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -2966,25 +3086,29 @@
       <c r="C37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="9">
         <v>30700</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>115</v>
+      <c r="H37" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2997,52 +3121,56 @@
       <c r="C38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="9">
         <v>30000</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="6" t="s">
+      <c r="G38" s="11"/>
+      <c r="H38" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I38" s="6"/>
+      <c r="I38" s="5" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="29" t="s">
+      <c r="B39" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="25">
         <v>14200</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="H39" s="32" t="s">
+      <c r="G39" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I39" s="32"/>
-      <c r="J39" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>115</v>
+      <c r="I39" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -3055,20 +3183,22 @@
       <c r="C40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="9">
         <v>1133000</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="6" t="s">
+      <c r="G40" s="11"/>
+      <c r="H40" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="6"/>
+      <c r="I40" s="5" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
@@ -3080,27 +3210,29 @@
       <c r="C41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="9">
         <v>21000</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>115</v>
+      <c r="I41" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -3113,31 +3245,33 @@
       <c r="C42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="9">
         <v>3000</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>115</v>
+      <c r="I42" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D43" s="16"/>
+      <c r="D43" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:F42"/>
@@ -3161,163 +3295,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>136</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1869994</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C3" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>5</v>
+      </c>
+      <c r="F3" s="16">
+        <v>2097358</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D4" s="16">
         <v>0</v>
       </c>
-      <c r="E2" s="20">
-        <v>136</v>
-      </c>
-      <c r="F2" s="20">
-        <v>1869994</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="E4" s="16">
+        <v>90</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1146753</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="20">
+    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="16">
         <v>0</v>
       </c>
-      <c r="E3" s="20">
-        <v>5</v>
-      </c>
-      <c r="F3" s="20">
-        <v>2097358</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="E5" s="16">
+        <v>125</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1372763</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D6" s="16">
         <v>0</v>
       </c>
-      <c r="E4" s="20">
-        <v>90</v>
-      </c>
-      <c r="F4" s="20">
-        <v>1146753</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="E6" s="16">
+        <v>143</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1511348</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="19" t="s">
+    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D7" s="16">
         <v>0</v>
       </c>
-      <c r="E5" s="20">
-        <v>125</v>
-      </c>
-      <c r="F5" s="20">
-        <v>1372763</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="20">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20">
-        <v>143</v>
-      </c>
-      <c r="F6" s="20">
-        <v>1511348</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="20">
-        <v>0</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="E7" s="16">
         <v>104</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="16">
         <v>2776104</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="15" t="s">
         <v>0</v>
       </c>
     </row>

--- a/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
+++ b/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Desktop\gardenhanoi\한국과학창의재단 메이커 지원사업\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duru/Documents/git/gardenhanoi/한국과학창의재단 메이커 지원사업/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2FF7A6-9679-AF42-9E13-C49E7D532680}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29220" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="지출항목" sheetId="2" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="201">
   <si>
     <t>은평뉴타운지점</t>
   </si>
@@ -317,10 +318,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>영수증없음</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>사업장비재료비</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -718,10 +715,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>영수증없음</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>정리완료</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -734,22 +727,22 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>매출전표</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>인쇄필요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출전표 출력</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,7 +934,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1119,12 +1112,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1501,7 +1488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1511,9 +1498,6 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1598,50 +1582,32 @@
     <xf numFmtId="176" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1963,27 +1929,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9" style="8"/>
-    <col min="3" max="3" width="15.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="8"/>
-    <col min="6" max="6" width="9" style="13"/>
-    <col min="7" max="7" width="26.25" style="8" customWidth="1"/>
-    <col min="8" max="9" width="9" style="6"/>
-    <col min="10" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="18.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9" style="7"/>
+    <col min="3" max="3" width="15.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="7"/>
+    <col min="6" max="6" width="9" style="12"/>
+    <col min="7" max="7" width="26.1640625" style="7" customWidth="1"/>
+    <col min="8" max="9" width="9" style="5"/>
+    <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="32">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1991,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>68</v>
@@ -1999,627 +1965,631 @@
       <c r="E1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="30">
+        <v>23700</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="8" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="32">
+      <c r="A3" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="38">
+        <v>2500</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="32">
+      <c r="A4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="30">
+        <v>68000</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="32">
+      <c r="A5" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="33">
+        <v>150000</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:12" ht="32">
+      <c r="A6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="30">
+        <v>35000</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="31">
+    <row r="7" spans="1:12" ht="32">
+      <c r="A7" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="33">
         <v>23700</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E7" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="32">
+      <c r="A8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="30">
+        <v>28600</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="32">
+      <c r="A9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="30">
+        <v>14400</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="32">
+      <c r="A10" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="33">
+        <v>148500</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="32">
+      <c r="A11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="30">
+        <v>36000</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="32">
+      <c r="A12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="32">
+      <c r="A13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="30">
+        <v>4000</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="32">
+      <c r="A14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="30">
+        <v>30000</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="32">
-        <v>2500</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="G14" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="31">
-        <v>68000</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="38">
-        <v>150000</v>
-      </c>
-      <c r="E5" s="39" t="s">
+      <c r="K14" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="32">
+      <c r="A15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="30">
+        <v>22000</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="31">
-        <v>35000</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="38">
-        <v>23700</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="31">
-        <v>28600</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="31">
-        <v>14400</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="G15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="32">
+      <c r="A16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="28">
+        <v>21500</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="32">
+      <c r="A17" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="37">
+        <v>10900</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:12" ht="32">
+      <c r="A18" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="22">
+        <v>53000</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="32">
+      <c r="A19" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="22">
+        <v>7600</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="38">
-        <v>148500</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="31">
-        <v>36000</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="31">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="31">
-        <v>4000</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="31">
-        <v>30000</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="31">
-        <v>22000</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="29">
-        <v>21500</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="4" t="s">
+    </row>
+    <row r="20" spans="1:12" ht="32">
+      <c r="A20" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="22">
+        <v>37500</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="42">
-        <v>10900</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="40"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="23">
-        <v>53000</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="23">
-        <v>7600</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="23">
-        <v>37500</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="I20" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="48">
+      <c r="A21" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>38000</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" s="8" t="s">
+      <c r="I21" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="32">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -2629,26 +2599,26 @@
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>15900</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I22" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="32">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2658,32 +2628,32 @@
       <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>8000</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" s="8" t="s">
+      <c r="I23" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="32">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -2693,32 +2663,32 @@
       <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>44000</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" s="8" t="s">
+      <c r="I24" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="K24" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="32">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -2728,26 +2698,26 @@
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>138000</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="5" t="s">
+      <c r="G25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I25" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="32">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -2757,32 +2727,32 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>10000</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="H26" s="36" t="s">
+      <c r="G26" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K26" s="8" t="s">
+      <c r="I26" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="K26" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="32">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2792,26 +2762,26 @@
       <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>10500</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="G27" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="32">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -2821,24 +2791,24 @@
       <c r="C28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>23600</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="5" t="s">
+      <c r="G28" s="10"/>
+      <c r="H28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I28" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="32">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -2848,84 +2818,96 @@
       <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>32000</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="5" t="s">
+      <c r="G29" s="10"/>
+      <c r="H29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K29" s="8" t="s">
+      <c r="I29" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+      <c r="K29" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="32">
+      <c r="A30" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="37" t="s">
+      <c r="B30" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="24">
         <v>61000</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="I30" s="45" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
+      <c r="G30" s="27"/>
+      <c r="H30" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="32">
+      <c r="A31" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="37" t="s">
+      <c r="B31" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="24">
         <v>3710</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="E31" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="I31" s="45" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G31" s="27"/>
+      <c r="H31" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="32">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -2935,30 +2917,30 @@
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>40000</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="5" t="s">
+      <c r="G32" s="10"/>
+      <c r="H32" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K32" s="8" t="s">
+      <c r="I32" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K32" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="32">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -2968,24 +2950,24 @@
       <c r="C33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>2000</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="5" t="s">
+      <c r="G33" s="10"/>
+      <c r="H33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I33" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="32">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -2995,26 +2977,26 @@
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>5250</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I34" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="32">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -3024,32 +3006,32 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>46000</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K35" s="8" t="s">
+      <c r="I35" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K35" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="32">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -3059,24 +3041,24 @@
       <c r="C36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>5750</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G36" s="10"/>
+      <c r="H36" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="32">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -3086,32 +3068,32 @@
       <c r="C37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>30700</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K37" s="8" t="s">
+      <c r="H37" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K37" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="32">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -3121,59 +3103,59 @@
       <c r="C38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>30000</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="5" t="s">
+      <c r="G38" s="10"/>
+      <c r="H38" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+      <c r="I38" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="32">
+      <c r="A39" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="24" t="s">
+      <c r="B39" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="24">
         <v>14200</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H39" s="27" t="s">
+      <c r="G39" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="I39" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K39" s="8" t="s">
+      <c r="I39" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K39" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="32">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -3183,24 +3165,24 @@
       <c r="C40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>1133000</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="5" t="s">
+      <c r="G40" s="10"/>
+      <c r="H40" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I40" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="32">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -3210,32 +3192,32 @@
       <c r="C41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>21000</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K41" s="8" t="s">
+      <c r="I41" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K41" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="32">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -3245,36 +3227,36 @@
       <c r="C42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>3000</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K42" s="8" t="s">
+      <c r="I42" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D43" s="12"/>
+      <c r="K42" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="D43" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:F42"/>
+  <autoFilter ref="E1:F42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3282,176 +3264,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>136</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1869994</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>5</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2097358</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D4" s="15">
         <v>0</v>
       </c>
-      <c r="E2" s="16">
-        <v>136</v>
-      </c>
-      <c r="F2" s="16">
-        <v>1869994</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="E4" s="15">
+        <v>90</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1146753</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="16">
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="15">
         <v>0</v>
       </c>
-      <c r="E3" s="16">
-        <v>5</v>
-      </c>
-      <c r="F3" s="16">
-        <v>2097358</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="E5" s="15">
+        <v>125</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1372763</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D6" s="15">
         <v>0</v>
       </c>
-      <c r="E4" s="16">
-        <v>90</v>
-      </c>
-      <c r="F4" s="16">
-        <v>1146753</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="E6" s="15">
+        <v>143</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1511348</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="15" t="s">
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D7" s="15">
         <v>0</v>
       </c>
-      <c r="E5" s="16">
-        <v>125</v>
-      </c>
-      <c r="F5" s="16">
-        <v>1372763</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>143</v>
-      </c>
-      <c r="F6" s="16">
-        <v>1511348</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>104</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>2776104</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>0</v>
       </c>
     </row>

--- a/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
+++ b/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duru/Documents/git/gardenhanoi/한국과학창의재단 메이커 지원사업/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Desktop\gardenhanoi\한국과학창의재단 메이커 지원사업\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2FF7A6-9679-AF42-9E13-C49E7D532680}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29220" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="29220" windowHeight="15675"/>
   </bookViews>
   <sheets>
     <sheet name="지출항목" sheetId="2" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="203">
   <si>
     <t>은평뉴타운지점</t>
   </si>
@@ -595,14 +594,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>매출전표</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>매출전표</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -732,17 +723,33 @@
   </si>
   <si>
     <t>매출전표 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인쇄필요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인쇄필요</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,7 +941,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1123,6 +1130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,7 +1501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1585,28 +1598,34 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1929,27 +1948,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="A5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="18.625" style="7" customWidth="1"/>
     <col min="2" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="15.1640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="7"/>
     <col min="6" max="6" width="9" style="12"/>
-    <col min="7" max="7" width="26.1640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="7" customWidth="1"/>
     <col min="8" max="9" width="9" style="5"/>
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1984,7 +2003,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -1998,22 +2017,22 @@
         <v>23700</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>140</v>
       </c>
@@ -2023,31 +2042,33 @@
       <c r="C3" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="33">
         <v>2500</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>177</v>
+      <c r="E3" s="34" t="s">
+        <v>175</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="32" t="s">
+        <v>199</v>
+      </c>
       <c r="J3" s="7" t="s">
         <v>113</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="32">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>142</v>
       </c>
@@ -2061,43 +2082,43 @@
         <v>68000</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="32">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="38">
         <v>150000</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:12" ht="32">
+      <c r="E5" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>137</v>
       </c>
@@ -2111,57 +2132,57 @@
         <v>35000</v>
       </c>
       <c r="E6" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="32">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>136</v>
       </c>
       <c r="D7" s="33">
         <v>23700</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="32">
+        <v>167</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>133</v>
       </c>
@@ -2190,9 +2211,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="32">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -2216,23 +2237,23 @@
         <v>154</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>146</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="32">
-      <c r="A10" s="32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="23" t="s">
         <v>130</v>
       </c>
       <c r="D10" s="33">
@@ -2241,20 +2262,20 @@
       <c r="E10" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I10" s="35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="32">
+      <c r="I10" s="32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>131</v>
       </c>
@@ -2286,10 +2307,10 @@
         <v>146</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="32">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
@@ -2318,7 +2339,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="32">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>122</v>
       </c>
@@ -2332,22 +2353,22 @@
         <v>4000</v>
       </c>
       <c r="E13" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="32">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>124</v>
       </c>
@@ -2361,16 +2382,16 @@
         <v>30000</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>160</v>
@@ -2379,10 +2400,10 @@
         <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="32">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>125</v>
       </c>
@@ -2396,22 +2417,22 @@
         <v>22000</v>
       </c>
       <c r="E15" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F15" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="32">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>96</v>
       </c>
@@ -2440,34 +2461,36 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="32">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="35" t="s">
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="35">
         <v>10900</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="35"/>
-    </row>
-    <row r="18" spans="1:12" ht="32">
+      <c r="I17" s="32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>92</v>
       </c>
@@ -2496,7 +2519,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="32">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>94</v>
       </c>
@@ -2522,10 +2545,10 @@
         <v>103</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="32">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>88</v>
       </c>
@@ -2554,7 +2577,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="48">
+    <row r="21" spans="1:12" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>75</v>
       </c>
@@ -2589,7 +2612,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="32">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -2618,7 +2641,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="32">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2653,7 +2676,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="32">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -2688,7 +2711,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="32">
+    <row r="25" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -2717,7 +2740,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="32">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -2737,7 +2760,7 @@
         <v>54</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H26" s="31" t="s">
         <v>83</v>
@@ -2752,7 +2775,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="32">
+    <row r="27" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2775,13 +2798,13 @@
         <v>115</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I27" s="26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="32">
+    <row r="28" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -2808,7 +2831,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="32">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -2841,7 +2864,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="32">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>28</v>
       </c>
@@ -2864,17 +2887,20 @@
       <c r="H30" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="I30" s="26" t="s">
-        <v>167</v>
+      <c r="I30" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>113</v>
       </c>
+      <c r="K30" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="32">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>30</v>
       </c>
@@ -2897,17 +2923,20 @@
       <c r="H31" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="I31" s="26" t="s">
-        <v>166</v>
+      <c r="I31" s="36" t="s">
+        <v>202</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>113</v>
       </c>
+      <c r="K31" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="L31" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="32">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -2940,7 +2969,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="32">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -2964,10 +2993,10 @@
         <v>84</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="32">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -2993,10 +3022,10 @@
         <v>84</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="32">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -3031,7 +3060,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="32">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -3052,13 +3081,13 @@
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="32">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -3081,7 +3110,7 @@
         <v>72</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>160</v>
@@ -3093,7 +3122,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="32">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -3120,7 +3149,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="32">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>44</v>
       </c>
@@ -3155,7 +3184,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="32">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -3182,7 +3211,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="32">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -3217,7 +3246,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="32">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -3252,11 +3281,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D43" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:F42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="E1:F42"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3264,19 +3293,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -3299,7 +3328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>116</v>
       </c>
@@ -3322,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>117</v>
       </c>
@@ -3345,7 +3374,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
@@ -3368,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
@@ -3391,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
@@ -3414,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>49</v>
       </c>

--- a/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
+++ b/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
@@ -16,14 +16,14 @@
     <sheet name="이자" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">지출항목!$E$1:$F$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">지출항목!$E$1:$F$83</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="274">
   <si>
     <t>은평뉴타운지점</t>
   </si>
@@ -722,10 +722,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>매출전표 출력</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>인쇄필요</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -740,6 +736,223 @@
   <si>
     <t>인쇄필요</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>증빙번호</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-01</t>
+  </si>
+  <si>
+    <t>3-02</t>
+  </si>
+  <si>
+    <t>3-03</t>
+  </si>
+  <si>
+    <t>3-04</t>
+  </si>
+  <si>
+    <t>3-41</t>
+  </si>
+  <si>
+    <t>3-40</t>
+  </si>
+  <si>
+    <t>3-39</t>
+  </si>
+  <si>
+    <t>사업추진비</t>
+  </si>
+  <si>
+    <t>인쇄필요</t>
+  </si>
+  <si>
+    <t>정리완료</t>
+  </si>
+  <si>
+    <t>스캔</t>
+  </si>
+  <si>
+    <t>사무용품</t>
+  </si>
+  <si>
+    <t>주차비</t>
+  </si>
+  <si>
+    <t>출장비</t>
+  </si>
+  <si>
+    <t>포장용품</t>
+  </si>
+  <si>
+    <t>회의비</t>
+  </si>
+  <si>
+    <t>돼장금</t>
+  </si>
+  <si>
+    <t>필요</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>3-12</t>
+  </si>
+  <si>
+    <t>3-13</t>
+  </si>
+  <si>
+    <t>3-14</t>
+  </si>
+  <si>
+    <t>3-15</t>
+  </si>
+  <si>
+    <t>3-16</t>
+  </si>
+  <si>
+    <t>3-17</t>
+  </si>
+  <si>
+    <t>3-18</t>
+  </si>
+  <si>
+    <t>3-19</t>
+  </si>
+  <si>
+    <t>3-20</t>
+  </si>
+  <si>
+    <t>3-21</t>
+  </si>
+  <si>
+    <t>3-22</t>
+  </si>
+  <si>
+    <t>3-23</t>
+  </si>
+  <si>
+    <t>3-24</t>
+  </si>
+  <si>
+    <t>3-25</t>
+  </si>
+  <si>
+    <t>3-26</t>
+  </si>
+  <si>
+    <t>3-27</t>
+  </si>
+  <si>
+    <t>3-28</t>
+  </si>
+  <si>
+    <t>3-29</t>
+  </si>
+  <si>
+    <t>3-30</t>
+  </si>
+  <si>
+    <t>3-31</t>
+  </si>
+  <si>
+    <t>3-32</t>
+  </si>
+  <si>
+    <t>3-33</t>
+  </si>
+  <si>
+    <t>3-34</t>
+  </si>
+  <si>
+    <t>3-35</t>
+  </si>
+  <si>
+    <t>3-36</t>
+  </si>
+  <si>
+    <t>3-37</t>
+  </si>
+  <si>
+    <t>3-38</t>
+  </si>
+  <si>
+    <t>3-05</t>
+  </si>
+  <si>
+    <t>3-06</t>
+  </si>
+  <si>
+    <t>3-07</t>
+  </si>
+  <si>
+    <t>3-08</t>
+  </si>
+  <si>
+    <t>3-09</t>
+  </si>
+  <si>
+    <t>ktx</t>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>숙박비</t>
+  </si>
+  <si>
+    <t>제본소찾아감, 실수, 나비당 점심</t>
+  </si>
+  <si>
+    <t>레이저커팅 후 식사</t>
+  </si>
+  <si>
+    <t xml:space="preserve">트레이싱지 전 회의…. </t>
+  </si>
+  <si>
+    <t>안전포장봉투 1개</t>
+  </si>
+  <si>
+    <t>인쇄골목 주차비</t>
+  </si>
+  <si>
+    <t>제본소에 재료조달, 킨코스방문</t>
+  </si>
+  <si>
+    <t>책 커팅에 필요한 칼과 클립구입</t>
+  </si>
+  <si>
+    <t>깃으로 판매자내역 정리에 대한 건, 뒷표지 오타에 관한 건, 기름종이 인쇄 건</t>
+  </si>
+  <si>
+    <t>리필용 칼심, 클립 구입(오피스디포)</t>
+  </si>
+  <si>
+    <t>사진촬영</t>
+  </si>
+  <si>
+    <t>첫 제본 후 회의</t>
+  </si>
+  <si>
+    <t>교수님에게 책 홍보</t>
+  </si>
+  <si>
+    <t>*영수증 거의 지워짐</t>
+  </si>
+  <si>
+    <t>경복궁 팹랩사용</t>
+  </si>
+  <si>
+    <t>하루 회의비 초과로 반납해야할듯</t>
+  </si>
+  <si>
+    <t>한양대학교 레이저커팅기 사용</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1372,6 +1585,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1501,7 +1727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1627,6 +1853,18 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1949,10 +2187,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="A5:I5"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L126" sqref="L126:L128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1965,7 +2204,9 @@
     <col min="6" max="6" width="9" style="12"/>
     <col min="7" max="7" width="26.125" style="7" customWidth="1"/>
     <col min="8" max="9" width="9" style="5"/>
-    <col min="10" max="16384" width="9" style="7"/>
+    <col min="10" max="11" width="9" style="7"/>
+    <col min="12" max="12" width="9.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -1996,14 +2237,17 @@
       <c r="I1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="44" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L1" s="44" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -2028,11 +2272,14 @@
       <c r="H2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="42" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="45"/>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>140</v>
       </c>
@@ -2056,19 +2303,17 @@
         <v>81</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="J3" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L3" s="45"/>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>142</v>
       </c>
@@ -2096,8 +2341,11 @@
       <c r="I4" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="45"/>
+    </row>
+    <row r="5" spans="1:12" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>144</v>
       </c>
@@ -2117,8 +2365,11 @@
       <c r="G5" s="41"/>
       <c r="H5" s="40"/>
       <c r="I5" s="40"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>137</v>
       </c>
@@ -2146,14 +2397,15 @@
       <c r="I6" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="43" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L6" s="45"/>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>135</v>
       </c>
@@ -2181,8 +2433,11 @@
       <c r="I7" s="32" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="45"/>
+    </row>
+    <row r="8" spans="1:12" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>133</v>
       </c>
@@ -2210,8 +2465,11 @@
       <c r="I8" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>179</v>
       </c>
@@ -2239,14 +2497,15 @@
       <c r="I9" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="43" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="L9" s="45"/>
+    </row>
+    <row r="10" spans="1:12" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>128</v>
       </c>
@@ -2274,8 +2533,11 @@
       <c r="I10" s="32" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>131</v>
       </c>
@@ -2303,14 +2565,15 @@
       <c r="I11" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="43" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="L11" s="45"/>
+    </row>
+    <row r="12" spans="1:12" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
@@ -2338,8 +2601,11 @@
       <c r="I12" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="45"/>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>122</v>
       </c>
@@ -2367,8 +2633,11 @@
       <c r="I13" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>124</v>
       </c>
@@ -2396,14 +2665,15 @@
       <c r="I14" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="43" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L14" s="45"/>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>125</v>
       </c>
@@ -2431,8 +2701,11 @@
       <c r="I15" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>96</v>
       </c>
@@ -2460,8 +2733,11 @@
       <c r="I16" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>91</v>
       </c>
@@ -2487,10 +2763,13 @@
         <v>103</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="45"/>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>92</v>
       </c>
@@ -2518,8 +2797,11 @@
       <c r="I18" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>94</v>
       </c>
@@ -2547,8 +2829,11 @@
       <c r="I19" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+    </row>
+    <row r="20" spans="1:12" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>88</v>
       </c>
@@ -2576,8 +2861,11 @@
       <c r="I20" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+    </row>
+    <row r="21" spans="1:12" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>75</v>
       </c>
@@ -2605,14 +2893,15 @@
       <c r="I21" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="43" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L21" s="45"/>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -2640,8 +2929,11 @@
       <c r="I22" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="45"/>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2669,14 +2961,15 @@
       <c r="I23" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="43" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L23" s="45"/>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -2704,12 +2997,13 @@
       <c r="I24" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="43" t="s">
         <v>112</v>
       </c>
+      <c r="L24" s="45"/>
     </row>
     <row r="25" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -2739,8 +3033,11 @@
       <c r="I25" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -2768,12 +3065,13 @@
       <c r="I26" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="43" t="s">
         <v>112</v>
       </c>
+      <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -2803,6 +3101,9 @@
       <c r="I27" s="26" t="s">
         <v>160</v>
       </c>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
     </row>
     <row r="28" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -2830,8 +3131,11 @@
       <c r="I28" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -2857,14 +3161,15 @@
       <c r="I29" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="43" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L29" s="45"/>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>28</v>
       </c>
@@ -2890,17 +3195,15 @@
       <c r="I30" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K30" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="L30" s="45"/>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>30</v>
       </c>
@@ -2924,19 +3227,17 @@
         <v>81</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="J31" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J31" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K31" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="L31" s="45"/>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -2962,14 +3263,15 @@
       <c r="I32" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="43" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="45"/>
+    </row>
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -2995,8 +3297,11 @@
       <c r="I33" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="45"/>
+    </row>
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -3024,8 +3329,11 @@
       <c r="I34" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="45"/>
+    </row>
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -3053,14 +3361,15 @@
       <c r="I35" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="K35" s="43" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="45"/>
+    </row>
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -3086,8 +3395,11 @@
       <c r="I36" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="45"/>
+    </row>
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -3115,14 +3427,15 @@
       <c r="I37" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="43" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37" s="45"/>
+    </row>
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -3148,8 +3461,11 @@
       <c r="I38" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="45"/>
+    </row>
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>44</v>
       </c>
@@ -3177,14 +3493,15 @@
       <c r="I39" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="43" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="45"/>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -3210,8 +3527,11 @@
       <c r="I40" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -3239,14 +3559,15 @@
       <c r="I41" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="43" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="45"/>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -3274,18 +3595,1757 @@
       <c r="I42" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="K42" s="43" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="45"/>
+    </row>
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="D43" s="11"/>
+      <c r="M43" s="7" t="str">
+        <f>"3-"&amp;TEXT(ROW(A1),"00")</f>
+        <v>3-01</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M44" s="7" t="str">
+        <f t="shared" ref="M44:M83" si="0">"3-"&amp;TEXT(ROW(A2),"00")</f>
+        <v>3-02</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M45" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-03</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M46" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-04</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M47" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-05</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M48" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-06</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M49" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-07</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M50" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-08</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M51" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-09</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M52" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-10</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M53" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-11</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M54" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-12</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M55" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-13</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M56" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-14</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M57" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-15</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="58" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M58" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-16</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M59" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-17</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M60" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-18</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M61" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-19</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M62" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-20</v>
+      </c>
+      <c r="N62" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M63" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-21</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M64" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-22</v>
+      </c>
+      <c r="N64" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M65" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-23</v>
+      </c>
+      <c r="N65" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M66" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-24</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M67" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-25</v>
+      </c>
+      <c r="N67" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M68" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-26</v>
+      </c>
+      <c r="N68" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M69" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-27</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M70" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-28</v>
+      </c>
+      <c r="N70" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M71" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-29</v>
+      </c>
+      <c r="N71" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M72" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-30</v>
+      </c>
+      <c r="N72" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M73" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-31</v>
+      </c>
+      <c r="N73" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M74" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-32</v>
+      </c>
+      <c r="N74" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M75" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-33</v>
+      </c>
+      <c r="N75" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="76" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M76" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-34</v>
+      </c>
+      <c r="N76" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M77" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-35</v>
+      </c>
+      <c r="N77" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="78" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M78" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-36</v>
+      </c>
+      <c r="N78" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M79" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-37</v>
+      </c>
+      <c r="N79" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M80" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-38</v>
+      </c>
+      <c r="N80" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M81" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-39</v>
+      </c>
+      <c r="N81" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M82" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-40</v>
+      </c>
+      <c r="N82" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M83" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3-41</v>
+      </c>
+      <c r="N83" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B86" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86" s="7">
+        <v>23700</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L86" s="7" t="str">
+        <f>"3-"&amp;TEXT(ROW(A1), "00")</f>
+        <v>3-01</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B87" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D87" s="7">
+        <v>2500</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L87" s="7" t="str">
+        <f t="shared" ref="L87:L114" si="1">"3-"&amp;TEXT(ROW(A2), "00")</f>
+        <v>3-02</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="7">
+        <v>68000</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L88" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-03</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B89" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D89" s="7">
+        <v>35000</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L89" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-04</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B90" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" s="7">
+        <v>23700</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L90" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-05</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B91" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" s="7">
+        <v>14400</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L91" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-06</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B92" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="7">
+        <v>36000</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L92" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-07</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B93" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L93" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-08</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B94" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D94" s="7">
+        <v>4000</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L94" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-09</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B95" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D95" s="7">
+        <v>30000</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L95" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-10</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B96" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="7">
+        <v>10900</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L96" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-11</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B97" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" s="7">
+        <v>38000</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L97" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-12</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B98" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="7">
+        <v>15900</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L98" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-13</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B99" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="7">
+        <v>8000</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L99" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-14</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B100" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="7">
+        <v>44000</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L100" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-15</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B101" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L101" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-16</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B102" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="7">
+        <v>32000</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L102" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-17</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B103" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D103" s="7">
+        <v>61000</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L103" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-18</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B104" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D104" s="7">
+        <v>3710</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L104" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-19</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B105" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="7">
+        <v>40000</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L105" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-20</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B106" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L106" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-21</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B107" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107" s="7">
+        <v>5250</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L107" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-22</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B108" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D108" s="7">
+        <v>46000</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L108" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-23</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B109" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="7">
+        <v>5750</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L109" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-24</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B110" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D110" s="7">
+        <v>30700</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L110" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-25</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B111" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D111" s="7">
+        <v>30000</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L111" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-26</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B112" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D112" s="7">
+        <v>14200</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L112" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B113" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113" s="7">
+        <v>21000</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L113" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B114" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D114" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L114" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3-29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="A116" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D116" s="38">
+        <v>150000</v>
+      </c>
+      <c r="E116" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F116" s="40"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="40"/>
+      <c r="I116" s="40"/>
+      <c r="J116" s="43"/>
+      <c r="K116" s="43"/>
+      <c r="L116" s="43" t="str">
+        <f>"2-"&amp;TEXT(ROW(A1), "00")</f>
+        <v>2-01</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D117" s="30">
+        <v>28600</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J117" s="43"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="43" t="str">
+        <f t="shared" ref="L117:L126" si="2">"2-"&amp;TEXT(ROW(A2), "00")</f>
+        <v>2-02</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="A118" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D118" s="33">
+        <v>148500</v>
+      </c>
+      <c r="E118" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I118" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="J118" s="43"/>
+      <c r="K118" s="43"/>
+      <c r="L118" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>2-03</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D119" s="30">
+        <v>22000</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F119" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J119" s="43"/>
+      <c r="K119" s="43"/>
+      <c r="L119" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>2-04</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D120" s="28">
+        <v>21500</v>
+      </c>
+      <c r="E120" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J120" s="43"/>
+      <c r="K120" s="43"/>
+      <c r="L120" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>2-05</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D121" s="22">
+        <v>53000</v>
+      </c>
+      <c r="E121" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J121" s="43"/>
+      <c r="K121" s="43"/>
+      <c r="L121" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>2-06</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D122" s="22">
+        <v>7600</v>
+      </c>
+      <c r="E122" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J122" s="43"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>2-07</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="A123" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D123" s="22">
+        <v>37500</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J123" s="43"/>
+      <c r="K123" s="43"/>
+      <c r="L123" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>2-08</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D124" s="8">
+        <v>1133000</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G124" s="10"/>
+      <c r="H124" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J124" s="43"/>
+      <c r="K124" s="43"/>
+      <c r="L124" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>2-09</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="8">
+        <v>138000</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J126" s="43"/>
+      <c r="K126" s="43"/>
+      <c r="L126" s="43" t="str">
+        <f>"1-"&amp;TEXT(ROW(A1), "00")</f>
+        <v>1-01</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" s="8">
+        <v>10500</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H127" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="I127" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="J127" s="43"/>
+      <c r="K127" s="43"/>
+      <c r="L127" s="43" t="str">
+        <f t="shared" ref="L127:L128" si="3">"1-"&amp;TEXT(ROW(A2), "00")</f>
+        <v>1-02</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="8">
+        <v>23600</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G128" s="10"/>
+      <c r="H128" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J128" s="43"/>
+      <c r="K128" s="43"/>
+      <c r="L128" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>1-03</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:F42"/>
+  <autoFilter ref="E1:F83">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="사업장비재료비"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="N43:N83">
+    <sortCondition descending="1" ref="N43"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
+++ b/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="280">
   <si>
     <t>은평뉴타운지점</t>
   </si>
@@ -784,9 +784,6 @@
     <t>출장비</t>
   </si>
   <si>
-    <t>포장용품</t>
-  </si>
-  <si>
     <t>회의비</t>
   </si>
   <si>
@@ -953,6 +950,34 @@
   </si>
   <si>
     <t>한양대학교 레이저커팅기 사용</t>
+  </si>
+  <si>
+    <t>2018.11.08 18:58</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.06 16:33</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.02 15:53</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.14 17:00</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.10 16:12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메리카노</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무용품</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2190,8 +2215,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L126" sqref="L126:L128"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3637,7 +3662,7 @@
         <v>3-04</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3646,7 +3671,7 @@
         <v>3-05</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3655,7 +3680,7 @@
         <v>3-06</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3664,7 +3689,7 @@
         <v>3-07</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3673,7 +3698,7 @@
         <v>3-08</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3682,7 +3707,7 @@
         <v>3-09</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3691,7 +3716,7 @@
         <v>3-10</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3700,7 +3725,7 @@
         <v>3-11</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3709,7 +3734,7 @@
         <v>3-12</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3718,7 +3743,7 @@
         <v>3-13</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3727,7 +3752,7 @@
         <v>3-14</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3736,7 +3761,7 @@
         <v>3-15</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3745,7 +3770,7 @@
         <v>3-16</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3754,7 +3779,7 @@
         <v>3-17</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3763,7 +3788,7 @@
         <v>3-18</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3772,7 +3797,7 @@
         <v>3-19</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3781,7 +3806,7 @@
         <v>3-20</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3790,7 +3815,7 @@
         <v>3-21</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3799,7 +3824,7 @@
         <v>3-22</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3808,7 +3833,7 @@
         <v>3-23</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3817,7 +3842,7 @@
         <v>3-24</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3826,7 +3851,7 @@
         <v>3-25</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3835,7 +3860,7 @@
         <v>3-26</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3844,7 +3869,7 @@
         <v>3-27</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3853,7 +3878,7 @@
         <v>3-28</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3862,7 +3887,7 @@
         <v>3-29</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3871,7 +3896,7 @@
         <v>3-30</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3880,7 +3905,7 @@
         <v>3-31</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3889,7 +3914,7 @@
         <v>3-32</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3898,7 +3923,7 @@
         <v>3-33</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3907,7 +3932,7 @@
         <v>3-34</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3916,7 +3941,7 @@
         <v>3-35</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3925,7 +3950,7 @@
         <v>3-36</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3934,7 +3959,7 @@
         <v>3-37</v>
       </c>
       <c r="N79" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
@@ -3946,7 +3971,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="M81" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-39</v>
@@ -3955,7 +3980,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="M82" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-40</v>
@@ -3964,7 +3989,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="M83" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-41</v>
@@ -3973,7 +3998,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="B86" s="7" t="s">
         <v>9</v>
       </c>
@@ -3990,7 +4018,7 @@
         <v>216</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>213</v>
@@ -4003,7 +4031,10 @@
         <v>3-01</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="23" t="s">
+        <v>140</v>
+      </c>
       <c r="B87" s="7" t="s">
         <v>9</v>
       </c>
@@ -4017,7 +4048,10 @@
         <v>210</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>213</v>
@@ -4026,17 +4060,20 @@
         <v>211</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L87" s="7" t="str">
         <f t="shared" ref="L87:L114" si="1">"3-"&amp;TEXT(ROW(A2), "00")</f>
         <v>3-02</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B88" s="7" t="s">
         <v>9</v>
       </c>
@@ -4053,7 +4090,7 @@
         <v>216</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>213</v>
@@ -4066,7 +4103,10 @@
         <v>3-03</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B89" s="7" t="s">
         <v>9</v>
       </c>
@@ -4080,10 +4120,10 @@
         <v>210</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>213</v>
@@ -4092,17 +4132,20 @@
         <v>212</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L89" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-04</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="23" t="s">
+        <v>135</v>
+      </c>
       <c r="B90" s="7" t="s">
         <v>9</v>
       </c>
@@ -4119,7 +4162,7 @@
         <v>216</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>213</v>
@@ -4132,7 +4175,10 @@
         <v>3-05</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="B91" s="7" t="s">
         <v>9</v>
       </c>
@@ -4146,10 +4192,10 @@
         <v>210</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>213</v>
@@ -4158,17 +4204,20 @@
         <v>212</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L91" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-06</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="B92" s="7" t="s">
         <v>9</v>
       </c>
@@ -4182,10 +4231,10 @@
         <v>210</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>213</v>
@@ -4194,17 +4243,20 @@
         <v>212</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L92" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-07</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="B93" s="7" t="s">
         <v>118</v>
       </c>
@@ -4218,10 +4270,10 @@
         <v>210</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>213</v>
@@ -4234,7 +4286,10 @@
         <v>3-08</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="B94" s="7" t="s">
         <v>9</v>
       </c>
@@ -4251,7 +4306,7 @@
         <v>215</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>213</v>
@@ -4264,12 +4319,15 @@
         <v>3-09</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B95" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D95" s="7">
         <v>30000</v>
@@ -4278,10 +4336,10 @@
         <v>210</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>213</v>
@@ -4290,17 +4348,20 @@
         <v>212</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L95" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-10</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="B96" s="7" t="s">
         <v>9</v>
       </c>
@@ -4317,7 +4378,7 @@
         <v>214</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>213</v>
@@ -4330,7 +4391,10 @@
         <v>3-11</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="B97" s="7" t="s">
         <v>9</v>
       </c>
@@ -4344,10 +4408,10 @@
         <v>210</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>213</v>
@@ -4356,17 +4420,20 @@
         <v>212</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L97" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-12</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B98" s="7" t="s">
         <v>9</v>
       </c>
@@ -4383,7 +4450,7 @@
         <v>214</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>213</v>
@@ -4396,7 +4463,10 @@
         <v>3-13</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B99" s="7" t="s">
         <v>9</v>
       </c>
@@ -4410,10 +4480,10 @@
         <v>210</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>213</v>
@@ -4422,17 +4492,20 @@
         <v>212</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L99" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-14</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B100" s="7" t="s">
         <v>9</v>
       </c>
@@ -4446,10 +4519,10 @@
         <v>210</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>213</v>
@@ -4458,17 +4531,20 @@
         <v>212</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L100" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-15</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B101" s="7" t="s">
         <v>9</v>
       </c>
@@ -4482,10 +4558,10 @@
         <v>210</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>213</v>
@@ -4494,17 +4570,20 @@
         <v>212</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L101" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-16</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B102" s="7" t="s">
         <v>9</v>
       </c>
@@ -4518,7 +4597,7 @@
         <v>210</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>213</v>
@@ -4527,17 +4606,20 @@
         <v>212</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L102" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-17</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="B103" s="7" t="s">
         <v>9</v>
       </c>
@@ -4551,7 +4633,7 @@
         <v>210</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>213</v>
@@ -4560,17 +4642,20 @@
         <v>211</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L103" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-18</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="B104" s="7" t="s">
         <v>9</v>
       </c>
@@ -4584,7 +4669,7 @@
         <v>210</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>213</v>
@@ -4593,17 +4678,20 @@
         <v>211</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L104" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-19</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B105" s="7" t="s">
         <v>9</v>
       </c>
@@ -4617,7 +4705,7 @@
         <v>210</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>213</v>
@@ -4626,17 +4714,20 @@
         <v>212</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L105" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-20</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B106" s="7" t="s">
         <v>9</v>
       </c>
@@ -4663,7 +4754,10 @@
         <v>3-21</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B107" s="7" t="s">
         <v>9</v>
       </c>
@@ -4680,7 +4774,7 @@
         <v>215</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>213</v>
@@ -4693,7 +4787,10 @@
         <v>3-22</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B108" s="7" t="s">
         <v>9</v>
       </c>
@@ -4707,10 +4804,10 @@
         <v>210</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>213</v>
@@ -4719,17 +4816,20 @@
         <v>212</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L108" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-23</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B109" s="7" t="s">
         <v>9</v>
       </c>
@@ -4756,7 +4856,10 @@
         <v>3-24</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B110" s="7" t="s">
         <v>9</v>
       </c>
@@ -4770,10 +4873,10 @@
         <v>210</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>213</v>
@@ -4782,17 +4885,20 @@
         <v>212</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L110" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-25</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B111" s="7" t="s">
         <v>9</v>
       </c>
@@ -4806,7 +4912,7 @@
         <v>210</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>213</v>
@@ -4819,7 +4925,10 @@
         <v>3-26</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="B112" s="7" t="s">
         <v>9</v>
       </c>
@@ -4833,10 +4942,10 @@
         <v>210</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>213</v>
@@ -4845,10 +4954,10 @@
         <v>212</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L112" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4856,6 +4965,9 @@
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B113" s="7" t="s">
         <v>9</v>
       </c>
@@ -4869,10 +4981,10 @@
         <v>210</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>213</v>
@@ -4881,10 +4993,10 @@
         <v>212</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L113" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4892,6 +5004,9 @@
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B114" s="7" t="s">
         <v>9</v>
       </c>
@@ -4905,10 +5020,10 @@
         <v>210</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>213</v>
@@ -4917,10 +5032,10 @@
         <v>212</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L114" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4941,7 +5056,7 @@
         <v>150000</v>
       </c>
       <c r="E116" s="39" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="F116" s="40"/>
       <c r="G116" s="41"/>
@@ -4956,7 +5071,7 @@
     </row>
     <row r="117" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>133</v>
+        <v>276</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>9</v>
@@ -4985,13 +5100,13 @@
       <c r="J117" s="43"/>
       <c r="K117" s="43"/>
       <c r="L117" s="43" t="str">
-        <f t="shared" ref="L117:L126" si="2">"2-"&amp;TEXT(ROW(A2), "00")</f>
+        <f t="shared" ref="L117:L124" si="2">"2-"&amp;TEXT(ROW(A2), "00")</f>
         <v>2-02</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A118" s="23" t="s">
-        <v>128</v>
+        <v>277</v>
       </c>
       <c r="B118" s="23" t="s">
         <v>129</v>
@@ -5234,7 +5349,7 @@
     </row>
     <row r="126" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>18</v>
+        <v>273</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>9</v>
@@ -5269,7 +5384,7 @@
     </row>
     <row r="127" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>9</v>
@@ -5304,7 +5419,7 @@
     </row>
     <row r="128" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>24</v>
+        <v>275</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>9</v>

--- a/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
+++ b/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Desktop\gardenhanoi\한국과학창의재단 메이커 지원사업\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duru/Documents/git/gardenhanoi/한국과학창의재단 메이커 지원사업/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C03DF9-FF6C-3D43-A161-73F257AAB44E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="29220" windowHeight="15675"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29220" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="지출항목" sheetId="2" r:id="rId1"/>
@@ -18,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">지출항목!$E$1:$F$83</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="274">
   <si>
     <t>은평뉴타운지점</t>
   </si>
@@ -784,6 +785,9 @@
     <t>출장비</t>
   </si>
   <si>
+    <t>포장용품</t>
+  </si>
+  <si>
     <t>회의비</t>
   </si>
   <si>
@@ -950,44 +954,17 @@
   </si>
   <si>
     <t>한양대학교 레이저커팅기 사용</t>
-  </si>
-  <si>
-    <t>2018.11.08 18:58</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.11.06 16:33</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.11.02 15:53</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.12.14 17:00</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.12.10 16:12</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아메리카노</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>사무용품</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1624,7 +1601,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1751,8 +1728,11 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1891,8 +1871,20 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1924,6 +1916,7 @@
     <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="쉼표 [0]" xfId="42" builtinId="6"/>
     <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
@@ -2211,30 +2204,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="15.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="7"/>
     <col min="6" max="6" width="9" style="12"/>
-    <col min="7" max="7" width="26.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="7" customWidth="1"/>
     <col min="8" max="9" width="9" style="5"/>
     <col min="10" max="11" width="9" style="7"/>
-    <col min="12" max="12" width="9.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="32">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2272,7 +2263,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="32" hidden="1">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -2304,7 +2295,7 @@
       <c r="K2" s="43"/>
       <c r="L2" s="45"/>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="32" hidden="1">
       <c r="A3" s="23" t="s">
         <v>140</v>
       </c>
@@ -2338,7 +2329,7 @@
       </c>
       <c r="L3" s="45"/>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="32" hidden="1">
       <c r="A4" s="1" t="s">
         <v>142</v>
       </c>
@@ -2370,7 +2361,7 @@
       <c r="K4" s="43"/>
       <c r="L4" s="45"/>
     </row>
-    <row r="5" spans="1:12" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="32" hidden="1">
       <c r="A5" s="37" t="s">
         <v>144</v>
       </c>
@@ -2394,7 +2385,7 @@
       <c r="K5" s="43"/>
       <c r="L5" s="43"/>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="32" hidden="1">
       <c r="A6" s="1" t="s">
         <v>137</v>
       </c>
@@ -2430,7 +2421,7 @@
       </c>
       <c r="L6" s="45"/>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="32" hidden="1">
       <c r="A7" s="23" t="s">
         <v>135</v>
       </c>
@@ -2462,7 +2453,7 @@
       <c r="K7" s="43"/>
       <c r="L7" s="45"/>
     </row>
-    <row r="8" spans="1:12" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="32" hidden="1">
       <c r="A8" s="1" t="s">
         <v>133</v>
       </c>
@@ -2494,7 +2485,7 @@
       <c r="K8" s="43"/>
       <c r="L8" s="43"/>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="32" hidden="1">
       <c r="A9" s="1" t="s">
         <v>179</v>
       </c>
@@ -2530,7 +2521,7 @@
       </c>
       <c r="L9" s="45"/>
     </row>
-    <row r="10" spans="1:12" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="32" hidden="1">
       <c r="A10" s="23" t="s">
         <v>128</v>
       </c>
@@ -2562,7 +2553,7 @@
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="32" hidden="1">
       <c r="A11" s="1" t="s">
         <v>131</v>
       </c>
@@ -2598,7 +2589,7 @@
       </c>
       <c r="L11" s="45"/>
     </row>
-    <row r="12" spans="1:12" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="32" hidden="1">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
@@ -2630,7 +2621,7 @@
       <c r="K12" s="43"/>
       <c r="L12" s="45"/>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="32" hidden="1">
       <c r="A13" s="1" t="s">
         <v>122</v>
       </c>
@@ -2662,7 +2653,7 @@
       <c r="K13" s="43"/>
       <c r="L13" s="45"/>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="32" hidden="1">
       <c r="A14" s="1" t="s">
         <v>124</v>
       </c>
@@ -2698,7 +2689,7 @@
       </c>
       <c r="L14" s="45"/>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="32" hidden="1">
       <c r="A15" s="1" t="s">
         <v>125</v>
       </c>
@@ -2730,7 +2721,7 @@
       <c r="K15" s="43"/>
       <c r="L15" s="43"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="32" hidden="1">
       <c r="A16" s="16" t="s">
         <v>96</v>
       </c>
@@ -2762,7 +2753,7 @@
       <c r="K16" s="43"/>
       <c r="L16" s="43"/>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="32" hidden="1">
       <c r="A17" s="3" t="s">
         <v>91</v>
       </c>
@@ -2794,7 +2785,7 @@
       <c r="K17" s="43"/>
       <c r="L17" s="45"/>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="32" hidden="1">
       <c r="A18" s="21" t="s">
         <v>92</v>
       </c>
@@ -2826,7 +2817,7 @@
       <c r="K18" s="43"/>
       <c r="L18" s="43"/>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="32" hidden="1">
       <c r="A19" s="21" t="s">
         <v>94</v>
       </c>
@@ -2858,7 +2849,7 @@
       <c r="K19" s="43"/>
       <c r="L19" s="43"/>
     </row>
-    <row r="20" spans="1:12" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="32" hidden="1">
       <c r="A20" s="21" t="s">
         <v>88</v>
       </c>
@@ -2890,7 +2881,7 @@
       <c r="K20" s="43"/>
       <c r="L20" s="43"/>
     </row>
-    <row r="21" spans="1:12" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="48" hidden="1">
       <c r="A21" s="18" t="s">
         <v>75</v>
       </c>
@@ -2926,7 +2917,7 @@
       </c>
       <c r="L21" s="45"/>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="32" hidden="1">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -2958,7 +2949,7 @@
       <c r="K22" s="43"/>
       <c r="L22" s="45"/>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="32" hidden="1">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2994,7 +2985,7 @@
       </c>
       <c r="L23" s="45"/>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="32" hidden="1">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -3030,7 +3021,7 @@
       </c>
       <c r="L24" s="45"/>
     </row>
-    <row r="25" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="32">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -3062,7 +3053,7 @@
       <c r="K25" s="43"/>
       <c r="L25" s="43"/>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="32" hidden="1">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -3098,7 +3089,7 @@
       </c>
       <c r="L26" s="45"/>
     </row>
-    <row r="27" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="32">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -3130,7 +3121,7 @@
       <c r="K27" s="43"/>
       <c r="L27" s="43"/>
     </row>
-    <row r="28" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="32">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -3160,7 +3151,7 @@
       <c r="K28" s="43"/>
       <c r="L28" s="43"/>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="32" hidden="1">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -3194,7 +3185,7 @@
       </c>
       <c r="L29" s="45"/>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="32" hidden="1">
       <c r="A30" s="23" t="s">
         <v>28</v>
       </c>
@@ -3228,7 +3219,7 @@
       </c>
       <c r="L30" s="45"/>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="32" hidden="1">
       <c r="A31" s="23" t="s">
         <v>30</v>
       </c>
@@ -3262,7 +3253,7 @@
       </c>
       <c r="L31" s="45"/>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="32" hidden="1">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -3296,7 +3287,7 @@
       </c>
       <c r="L32" s="45"/>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="32" hidden="1">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -3326,7 +3317,7 @@
       <c r="K33" s="43"/>
       <c r="L33" s="45"/>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="32" hidden="1">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -3358,7 +3349,7 @@
       <c r="K34" s="43"/>
       <c r="L34" s="45"/>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="32" hidden="1">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -3394,7 +3385,7 @@
       </c>
       <c r="L35" s="45"/>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="32" hidden="1">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -3424,7 +3415,7 @@
       <c r="K36" s="43"/>
       <c r="L36" s="45"/>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="32" hidden="1">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -3460,7 +3451,7 @@
       </c>
       <c r="L37" s="45"/>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="32" hidden="1">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -3490,7 +3481,7 @@
       <c r="K38" s="43"/>
       <c r="L38" s="45"/>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="32" hidden="1">
       <c r="A39" s="23" t="s">
         <v>44</v>
       </c>
@@ -3526,7 +3517,7 @@
       </c>
       <c r="L39" s="45"/>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="32" hidden="1">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -3556,7 +3547,7 @@
       <c r="K40" s="43"/>
       <c r="L40" s="43"/>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="32" hidden="1">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -3592,7 +3583,7 @@
       </c>
       <c r="L41" s="45"/>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="32" hidden="1">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -3628,7 +3619,7 @@
       </c>
       <c r="L42" s="45"/>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" hidden="1">
       <c r="D43" s="11"/>
       <c r="M43" s="7" t="str">
         <f>"3-"&amp;TEXT(ROW(A1),"00")</f>
@@ -3638,7 +3629,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" hidden="1">
       <c r="M44" s="7" t="str">
         <f t="shared" ref="M44:M83" si="0">"3-"&amp;TEXT(ROW(A2),"00")</f>
         <v>3-02</v>
@@ -3647,7 +3638,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" hidden="1">
       <c r="M45" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-03</v>
@@ -3656,313 +3647,313 @@
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" hidden="1">
       <c r="M46" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-04</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" hidden="1">
       <c r="M47" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-05</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" hidden="1">
       <c r="M48" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-06</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="13:14" hidden="1">
       <c r="M49" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-07</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="50" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="13:14" hidden="1">
       <c r="M50" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-08</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="51" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="13:14" hidden="1">
       <c r="M51" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-09</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="52" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="13:14" hidden="1">
       <c r="M52" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-10</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="53" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="13:14" hidden="1">
       <c r="M53" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-11</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="54" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="13:14" hidden="1">
       <c r="M54" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-12</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="55" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="13:14" hidden="1">
       <c r="M55" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-13</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="56" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="13:14" hidden="1">
       <c r="M56" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-14</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="57" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="13:14" hidden="1">
       <c r="M57" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-15</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="58" spans="13:14" hidden="1">
       <c r="M58" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-16</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="59" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="13:14" hidden="1">
       <c r="M59" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-17</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="60" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="13:14" hidden="1">
       <c r="M60" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-18</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="61" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="13:14" hidden="1">
       <c r="M61" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-19</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="62" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="13:14" hidden="1">
       <c r="M62" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-20</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="63" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="13:14" hidden="1">
       <c r="M63" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-21</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="64" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="13:14" hidden="1">
       <c r="M64" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-22</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="65" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="13:14" hidden="1">
       <c r="M65" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-23</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="66" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="13:14" hidden="1">
       <c r="M66" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-24</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="67" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="13:14" hidden="1">
       <c r="M67" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-25</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="13:14" hidden="1">
       <c r="M68" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-26</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="69" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="13:14" hidden="1">
       <c r="M69" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-27</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="70" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="13:14" hidden="1">
       <c r="M70" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-28</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="71" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="13:14" hidden="1">
       <c r="M71" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-29</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="72" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="13:14" hidden="1">
       <c r="M72" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-30</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="13:14" hidden="1">
       <c r="M73" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-31</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="74" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="13:14" hidden="1">
       <c r="M74" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-32</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="75" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="13:14" hidden="1">
       <c r="M75" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-33</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="76" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="76" spans="13:14" hidden="1">
       <c r="M76" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-34</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="77" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="13:14" hidden="1">
       <c r="M77" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-35</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="78" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="78" spans="13:14" hidden="1">
       <c r="M78" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-36</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="79" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="13:14" hidden="1">
       <c r="M79" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-37</v>
       </c>
       <c r="N79" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="80" spans="13:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="13:14" hidden="1">
       <c r="M80" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-38</v>
@@ -3971,7 +3962,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" hidden="1">
       <c r="M81" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-39</v>
@@ -3980,7 +3971,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" hidden="1">
       <c r="M82" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-40</v>
@@ -3989,7 +3980,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" hidden="1">
       <c r="M83" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3-41</v>
@@ -3998,10 +3989,13 @@
         <v>203</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>139</v>
-      </c>
+    <row r="84" spans="2:14">
+      <c r="D84" s="11">
+        <f>SUM(D25:D28)</f>
+        <v>182100</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14">
       <c r="B86" s="7" t="s">
         <v>9</v>
       </c>
@@ -4018,7 +4012,7 @@
         <v>216</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>213</v>
@@ -4031,10 +4025,7 @@
         <v>3-01</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="23" t="s">
-        <v>140</v>
-      </c>
+    <row r="87" spans="2:14">
       <c r="B87" s="7" t="s">
         <v>9</v>
       </c>
@@ -4048,10 +4039,7 @@
         <v>210</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>213</v>
@@ -4060,20 +4048,17 @@
         <v>211</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L87" s="7" t="str">
         <f t="shared" ref="L87:L114" si="1">"3-"&amp;TEXT(ROW(A2), "00")</f>
         <v>3-02</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>142</v>
-      </c>
+    <row r="88" spans="2:14">
       <c r="B88" s="7" t="s">
         <v>9</v>
       </c>
@@ -4090,7 +4075,7 @@
         <v>216</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>213</v>
@@ -4103,10 +4088,7 @@
         <v>3-03</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>137</v>
-      </c>
+    <row r="89" spans="2:14">
       <c r="B89" s="7" t="s">
         <v>9</v>
       </c>
@@ -4120,10 +4102,10 @@
         <v>210</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>213</v>
@@ -4132,20 +4114,17 @@
         <v>212</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L89" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-04</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="23" t="s">
-        <v>135</v>
-      </c>
+    <row r="90" spans="2:14">
       <c r="B90" s="7" t="s">
         <v>9</v>
       </c>
@@ -4162,7 +4141,7 @@
         <v>216</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>213</v>
@@ -4175,10 +4154,7 @@
         <v>3-05</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>179</v>
-      </c>
+    <row r="91" spans="2:14">
       <c r="B91" s="7" t="s">
         <v>9</v>
       </c>
@@ -4192,10 +4168,10 @@
         <v>210</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>213</v>
@@ -4204,20 +4180,17 @@
         <v>212</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L91" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-06</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>131</v>
-      </c>
+    <row r="92" spans="2:14">
       <c r="B92" s="7" t="s">
         <v>9</v>
       </c>
@@ -4231,10 +4204,10 @@
         <v>210</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>213</v>
@@ -4243,20 +4216,17 @@
         <v>212</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L92" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-07</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>117</v>
-      </c>
+    <row r="93" spans="2:14">
       <c r="B93" s="7" t="s">
         <v>118</v>
       </c>
@@ -4270,10 +4240,10 @@
         <v>210</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>213</v>
@@ -4286,10 +4256,7 @@
         <v>3-08</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>122</v>
-      </c>
+    <row r="94" spans="2:14">
       <c r="B94" s="7" t="s">
         <v>9</v>
       </c>
@@ -4306,7 +4273,7 @@
         <v>215</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>213</v>
@@ -4319,15 +4286,12 @@
         <v>3-09</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>124</v>
-      </c>
+    <row r="95" spans="2:14">
       <c r="B95" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D95" s="7">
         <v>30000</v>
@@ -4336,10 +4300,10 @@
         <v>210</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>213</v>
@@ -4348,20 +4312,17 @@
         <v>212</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L95" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-10</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>91</v>
-      </c>
+    <row r="96" spans="2:14">
       <c r="B96" s="7" t="s">
         <v>9</v>
       </c>
@@ -4378,7 +4339,7 @@
         <v>214</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>213</v>
@@ -4391,10 +4352,7 @@
         <v>3-11</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="18" t="s">
-        <v>75</v>
-      </c>
+    <row r="97" spans="2:12">
       <c r="B97" s="7" t="s">
         <v>9</v>
       </c>
@@ -4408,10 +4366,10 @@
         <v>210</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>213</v>
@@ -4420,20 +4378,17 @@
         <v>212</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L97" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-12</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="98" spans="2:12">
       <c r="B98" s="7" t="s">
         <v>9</v>
       </c>
@@ -4450,7 +4405,7 @@
         <v>214</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>213</v>
@@ -4463,10 +4418,7 @@
         <v>3-13</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="99" spans="2:12">
       <c r="B99" s="7" t="s">
         <v>9</v>
       </c>
@@ -4480,10 +4432,10 @@
         <v>210</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>213</v>
@@ -4492,20 +4444,17 @@
         <v>212</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L99" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-14</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="100" spans="2:12">
       <c r="B100" s="7" t="s">
         <v>9</v>
       </c>
@@ -4519,10 +4468,10 @@
         <v>210</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>213</v>
@@ -4531,20 +4480,17 @@
         <v>212</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L100" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-15</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="101" spans="2:12">
       <c r="B101" s="7" t="s">
         <v>9</v>
       </c>
@@ -4558,10 +4504,10 @@
         <v>210</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>213</v>
@@ -4570,20 +4516,17 @@
         <v>212</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L101" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-16</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="102" spans="2:12">
       <c r="B102" s="7" t="s">
         <v>9</v>
       </c>
@@ -4597,7 +4540,7 @@
         <v>210</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>213</v>
@@ -4606,20 +4549,17 @@
         <v>212</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L102" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-17</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="23" t="s">
-        <v>28</v>
-      </c>
+    <row r="103" spans="2:12">
       <c r="B103" s="7" t="s">
         <v>9</v>
       </c>
@@ -4633,7 +4573,7 @@
         <v>210</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>213</v>
@@ -4642,20 +4582,17 @@
         <v>211</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L103" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-18</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="23" t="s">
-        <v>30</v>
-      </c>
+    <row r="104" spans="2:12">
       <c r="B104" s="7" t="s">
         <v>9</v>
       </c>
@@ -4669,7 +4606,7 @@
         <v>210</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>213</v>
@@ -4678,20 +4615,17 @@
         <v>211</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L104" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-19</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>32</v>
-      </c>
+    <row r="105" spans="2:12">
       <c r="B105" s="7" t="s">
         <v>9</v>
       </c>
@@ -4705,7 +4639,7 @@
         <v>210</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>213</v>
@@ -4714,20 +4648,17 @@
         <v>212</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L105" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-20</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>34</v>
-      </c>
+    <row r="106" spans="2:12">
       <c r="B106" s="7" t="s">
         <v>9</v>
       </c>
@@ -4754,10 +4685,7 @@
         <v>3-21</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="107" spans="2:12">
       <c r="B107" s="7" t="s">
         <v>9</v>
       </c>
@@ -4774,7 +4702,7 @@
         <v>215</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>213</v>
@@ -4787,10 +4715,7 @@
         <v>3-22</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="108" spans="2:12">
       <c r="B108" s="7" t="s">
         <v>9</v>
       </c>
@@ -4804,10 +4729,10 @@
         <v>210</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>213</v>
@@ -4816,20 +4741,17 @@
         <v>212</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L108" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-23</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>40</v>
-      </c>
+    <row r="109" spans="2:12">
       <c r="B109" s="7" t="s">
         <v>9</v>
       </c>
@@ -4856,10 +4778,7 @@
         <v>3-24</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>41</v>
-      </c>
+    <row r="110" spans="2:12">
       <c r="B110" s="7" t="s">
         <v>9</v>
       </c>
@@ -4873,10 +4792,10 @@
         <v>210</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>213</v>
@@ -4885,20 +4804,17 @@
         <v>212</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L110" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-25</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>42</v>
-      </c>
+    <row r="111" spans="2:12">
       <c r="B111" s="7" t="s">
         <v>9</v>
       </c>
@@ -4912,7 +4828,7 @@
         <v>210</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>213</v>
@@ -4925,10 +4841,7 @@
         <v>3-26</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="23" t="s">
-        <v>44</v>
-      </c>
+    <row r="112" spans="2:12">
       <c r="B112" s="7" t="s">
         <v>9</v>
       </c>
@@ -4942,10 +4855,10 @@
         <v>210</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>213</v>
@@ -4954,20 +4867,17 @@
         <v>212</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L112" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-27</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>50</v>
-      </c>
+    <row r="113" spans="1:12">
       <c r="B113" s="7" t="s">
         <v>9</v>
       </c>
@@ -4981,10 +4891,10 @@
         <v>210</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>213</v>
@@ -4993,20 +4903,17 @@
         <v>212</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L113" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-28</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>52</v>
-      </c>
+    <row r="114" spans="1:12">
       <c r="B114" s="7" t="s">
         <v>9</v>
       </c>
@@ -5020,10 +4927,10 @@
         <v>210</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>213</v>
@@ -5032,17 +4939,23 @@
         <v>212</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L114" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3-29</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12">
+      <c r="D115" s="46">
+        <f>SUM(D86:D114)</f>
+        <v>659710</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="32">
       <c r="A116" s="37" t="s">
         <v>144</v>
       </c>
@@ -5056,7 +4969,7 @@
         <v>150000</v>
       </c>
       <c r="E116" s="39" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="F116" s="40"/>
       <c r="G116" s="41"/>
@@ -5069,9 +4982,9 @@
         <v>2-01</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="32">
       <c r="A117" s="1" t="s">
-        <v>276</v>
+        <v>133</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>9</v>
@@ -5104,9 +5017,9 @@
         <v>2-02</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="32">
       <c r="A118" s="23" t="s">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="B118" s="23" t="s">
         <v>129</v>
@@ -5139,7 +5052,7 @@
         <v>2-03</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="32">
       <c r="A119" s="1" t="s">
         <v>125</v>
       </c>
@@ -5174,7 +5087,7 @@
         <v>2-04</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="32">
       <c r="A120" s="16" t="s">
         <v>96</v>
       </c>
@@ -5209,7 +5122,7 @@
         <v>2-05</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="32">
       <c r="A121" s="21" t="s">
         <v>92</v>
       </c>
@@ -5244,7 +5157,7 @@
         <v>2-06</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="32">
       <c r="A122" s="21" t="s">
         <v>94</v>
       </c>
@@ -5279,7 +5192,7 @@
         <v>2-07</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="32">
       <c r="A123" s="21" t="s">
         <v>88</v>
       </c>
@@ -5314,7 +5227,7 @@
         <v>2-08</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="32">
       <c r="A124" s="1" t="s">
         <v>46</v>
       </c>
@@ -5347,111 +5260,128 @@
         <v>2-09</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="27" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="1" t="s">
+    <row r="125" spans="1:12">
+      <c r="A125" s="47"/>
+      <c r="B125" s="47"/>
+      <c r="C125" s="47"/>
+      <c r="D125" s="48">
+        <f>SUM(D117:D124)</f>
+        <v>1451700</v>
+      </c>
+      <c r="E125" s="47"/>
+      <c r="F125" s="49"/>
+      <c r="G125" s="49"/>
+      <c r="H125" s="49"/>
+      <c r="I125" s="49"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+    </row>
+    <row r="127" spans="1:12" ht="32">
+      <c r="A127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D126" s="8">
+      <c r="D127" s="8">
         <v>138000</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I126" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J126" s="43"/>
-      <c r="K126" s="43"/>
-      <c r="L126" s="43" t="str">
-        <f>"1-"&amp;TEXT(ROW(A1), "00")</f>
-        <v>1-01</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="27" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D127" s="8">
-        <v>10500</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>66</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H127" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="I127" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I127" s="4" t="s">
         <v>160</v>
       </c>
       <c r="J127" s="43"/>
       <c r="K127" s="43"/>
       <c r="L127" s="43" t="str">
-        <f t="shared" ref="L127:L128" si="3">"1-"&amp;TEXT(ROW(A2), "00")</f>
-        <v>1-02</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+        <f>"1-"&amp;TEXT(ROW(A1), "00")</f>
+        <v>1-01</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="32">
       <c r="A128" s="1" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D128" s="8">
-        <v>23600</v>
+        <v>10500</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G128" s="10"/>
-      <c r="H128" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I128" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H128" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="I128" s="26" t="s">
         <v>160</v>
       </c>
       <c r="J128" s="43"/>
       <c r="K128" s="43"/>
       <c r="L128" s="43" t="str">
+        <f t="shared" ref="L128:L129" si="3">"1-"&amp;TEXT(ROW(A2), "00")</f>
+        <v>1-02</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="32">
+      <c r="A129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="8">
+        <v>23600</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G129" s="10"/>
+      <c r="H129" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J129" s="43"/>
+      <c r="K129" s="43"/>
+      <c r="L129" s="43" t="str">
         <f t="shared" si="3"/>
         <v>1-03</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:F83">
+  <autoFilter ref="E1:F83" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="사업장비재료비"/>
@@ -5468,19 +5398,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -5503,7 +5433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="14" t="s">
         <v>116</v>
       </c>
@@ -5526,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="14" t="s">
         <v>117</v>
       </c>
@@ -5549,7 +5479,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
@@ -5572,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
@@ -5595,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
@@ -5618,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="14" t="s">
         <v>49</v>
       </c>

--- a/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
+++ b/한국과학창의재단 메이커 지원사업/하노이의 하루 관련 지출 내역_우리은행.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="281">
   <si>
     <t>은평뉴타운지점</t>
   </si>
@@ -977,6 +977,10 @@
   </si>
   <si>
     <t>사무용품</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.18 17:14</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2215,8 +2219,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5044,7 +5048,7 @@
     </row>
     <row r="116" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A116" s="37" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="B116" s="37" t="s">
         <v>129</v>
